--- a/biology/Botanique/Katja_(pomme)/Katja_(pomme).xlsx
+++ b/biology/Botanique/Katja_(pomme)/Katja_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Katja est le nom d'un cultivar de pommier domestique.
 Aussi connu sous le nom Katy.
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Obtenu à Balsgärd en Suède en 1947 et distribué en 1996.
 </t>
@@ -543,9 +557,11 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pomme Katja résulte du croisement James Grieve × Worcester Pearmain[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pomme Katja résulte du croisement James Grieve × Worcester Pearmain.
 </t>
         </is>
       </c>
@@ -574,11 +590,13 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Variété diploide.
 Groupe de floraison: B.
-S-génotype: S5S24 [2].</t>
+S-génotype: S5S24 .</t>
         </is>
       </c>
     </row>
@@ -606,9 +624,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Fructification: type spur[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Fructification: type spur.
 Vigueur du cultivar: forte.</t>
         </is>
       </c>
